--- a/data/trans_orig/P1419-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9DA0A77-C07A-45F5-9AD4-74311423D747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A40F764F-60DE-45CF-A7EC-C5F2C39274C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{381666B0-8632-4621-A383-9EF7A4088D30}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E91298BF-1F1C-4ABF-9C39-FF8855E9311D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="476">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1408 +95,1378 @@
     <t>1,41%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>86,34%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA758F72-10C7-4E48-899F-D3F994AEB2C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C999B274-075E-48CA-B398-AA113BAAF556}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2119,13 +2089,13 @@
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>499</v>
@@ -2134,13 +2104,13 @@
         <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>483</v>
@@ -2149,13 +2119,13 @@
         <v>460903</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>982</v>
@@ -2164,13 +2134,13 @@
         <v>954967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2155,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2200,13 +2170,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -2215,18 +2185,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2244,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2259,7 +2229,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2274,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2259,13 @@
         <v>8387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -2304,13 +2274,13 @@
         <v>30955</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -2319,19 +2289,19 @@
         <v>39342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>696</v>
@@ -2340,13 +2310,13 @@
         <v>727102</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>563</v>
@@ -2355,13 +2325,13 @@
         <v>594539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>1259</v>
@@ -2370,13 +2340,13 @@
         <v>1321640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2361,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -2406,13 +2376,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -2421,18 +2391,18 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2450,7 +2420,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2465,7 +2435,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2480,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,13 +2465,13 @@
         <v>10140</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2510,13 +2480,13 @@
         <v>50489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2525,19 +2495,19 @@
         <v>60629</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>603</v>
@@ -2546,13 +2516,13 @@
         <v>628528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>609</v>
@@ -2561,13 +2531,13 @@
         <v>639255</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>1212</v>
@@ -2576,13 +2546,13 @@
         <v>1267783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2567,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -2612,13 +2582,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -2627,18 +2597,18 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2656,7 +2626,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2701,13 +2671,13 @@
         <v>20446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -2716,13 +2686,13 @@
         <v>54421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -2731,19 +2701,19 @@
         <v>74867</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>466</v>
@@ -2752,13 +2722,13 @@
         <v>498701</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>449</v>
@@ -2767,13 +2737,13 @@
         <v>461221</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>915</v>
@@ -2782,13 +2752,13 @@
         <v>959922</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2773,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -2818,13 +2788,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -2833,18 +2803,18 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2862,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2877,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2892,7 +2862,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2877,13 @@
         <v>22227</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -2922,13 +2892,13 @@
         <v>61446</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>84</v>
@@ -2937,19 +2907,19 @@
         <v>83674</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>369</v>
@@ -2958,13 +2928,13 @@
         <v>364483</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>335</v>
@@ -2973,13 +2943,13 @@
         <v>342540</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>704</v>
@@ -2988,13 +2958,13 @@
         <v>707022</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +2979,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -3024,13 +2994,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -3039,18 +3009,18 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3068,7 +3038,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3083,7 +3053,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3098,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3083,13 @@
         <v>37878</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>157</v>
@@ -3128,13 +3098,13 @@
         <v>160440</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>196</v>
@@ -3143,19 +3113,19 @@
         <v>198318</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>484</v>
@@ -3164,13 +3134,13 @@
         <v>464588</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="H26" s="7">
         <v>504</v>
@@ -3179,13 +3149,13 @@
         <v>516402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>988</v>
@@ -3194,13 +3164,13 @@
         <v>980990</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3185,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3230,13 +3200,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3245,13 +3215,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3289,7 +3259,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3304,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3289,13 @@
         <v>99079</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>354</v>
@@ -3334,13 +3304,13 @@
         <v>364338</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M29" s="7">
         <v>451</v>
@@ -3349,19 +3319,19 @@
         <v>463416</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>3117</v>
@@ -3370,13 +3340,13 @@
         <v>3177465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H30" s="7">
         <v>2943</v>
@@ -3385,19 +3355,19 @@
         <v>3014860</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>6060</v>
       </c>
       <c r="N30" s="7">
-        <v>6192324</v>
+        <v>6192325</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>152</v>
@@ -3421,13 +3391,13 @@
         <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -3436,28 +3406,28 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,7 +3454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76536E67-4035-4633-B5EC-F86C98EF1D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AEE2B7-A536-4955-8050-66364AAC7814}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3701,7 +3671,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>446</v>
@@ -3710,13 +3680,13 @@
         <v>454146</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>421</v>
@@ -3725,13 +3695,13 @@
         <v>430230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>161</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>867</v>
@@ -3740,13 +3710,13 @@
         <v>884376</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3731,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -3776,13 +3746,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -3791,18 +3761,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3820,7 +3790,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3850,7 +3820,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,10 +3853,10 @@
         <v>167</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -3895,19 +3865,19 @@
         <v>9918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>664</v>
@@ -3916,13 +3886,13 @@
         <v>684220</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>564</v>
@@ -3931,13 +3901,13 @@
         <v>603203</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>1228</v>
@@ -3946,13 +3916,13 @@
         <v>1287424</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3937,13 @@
         <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -3982,13 +3952,13 @@
         <v>610255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -3997,18 +3967,18 @@
         <v>1297342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4026,7 +3996,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4041,7 +4011,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4056,7 +4026,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4041,13 @@
         <v>5916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4086,13 +4056,13 @@
         <v>39987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4101,19 +4071,19 @@
         <v>45903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>647</v>
@@ -4122,13 +4092,13 @@
         <v>675947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>630</v>
@@ -4137,13 +4107,13 @@
         <v>669587</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>1277</v>
@@ -4152,13 +4122,13 @@
         <v>1345534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4143,13 @@
         <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>666</v>
@@ -4188,13 +4158,13 @@
         <v>709574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>1317</v>
@@ -4203,18 +4173,18 @@
         <v>1391437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4232,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4247,7 +4217,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4262,7 +4232,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4247,13 @@
         <v>9842</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -4292,13 +4262,13 @@
         <v>40421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -4307,19 +4277,19 @@
         <v>50263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>540</v>
@@ -4328,13 +4298,13 @@
         <v>604775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>501</v>
@@ -4343,13 +4313,13 @@
         <v>573843</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M18" s="7">
         <v>1041</v>
@@ -4358,13 +4328,13 @@
         <v>1178617</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4349,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" s="7">
         <v>538</v>
@@ -4394,13 +4364,13 @@
         <v>614264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>1086</v>
@@ -4409,18 +4379,18 @@
         <v>1228880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4438,7 +4408,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4453,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4468,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4453,13 @@
         <v>5268</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -4498,13 +4468,13 @@
         <v>59010</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M21" s="7">
         <v>61</v>
@@ -4513,19 +4483,19 @@
         <v>64278</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>388</v>
@@ -4534,13 +4504,13 @@
         <v>424161</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>350</v>
@@ -4549,13 +4519,13 @@
         <v>388790</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>738</v>
@@ -4564,13 +4534,13 @@
         <v>812951</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4555,13 @@
         <v>429429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -4600,13 +4570,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -4615,18 +4585,18 @@
         <v>877229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4659,7 +4629,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4674,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4659,7 @@
         <v>16895</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>231</v>
@@ -4731,7 +4701,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>488</v>
@@ -4740,7 +4710,7 @@
         <v>542742</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>239</v>
@@ -4791,13 +4761,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -4806,13 +4776,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -4821,13 +4791,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4865,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4880,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,10 +4883,10 @@
         <v>250</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>314</v>
@@ -4925,19 +4895,19 @@
         <v>340472</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>3173</v>
@@ -4946,13 +4916,13 @@
         <v>3385991</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H30" s="7">
         <v>3018</v>
@@ -4961,28 +4931,28 @@
         <v>3255414</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="M30" s="7">
         <v>6191</v>
       </c>
       <c r="N30" s="7">
-        <v>6641405</v>
+        <v>6641406</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4967,13 @@
         <v>3426779</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31" s="7">
         <v>3296</v>
@@ -5012,28 +4982,28 @@
         <v>3555098</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,7 +5030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BAC648-94C4-4E0E-9835-8F339EED1759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA84D28F-18F8-4A66-B0E9-627ACB10C097}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5077,7 +5047,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5190,7 +5160,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5205,7 +5175,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5220,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,7 +5211,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5256,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5271,13 +5241,13 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>393</v>
@@ -5286,13 +5256,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>404</v>
@@ -5301,13 +5271,13 @@
         <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>797</v>
@@ -5316,13 +5286,13 @@
         <v>815218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5307,13 @@
         <v>419463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>404</v>
@@ -5352,13 +5322,13 @@
         <v>395755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>797</v>
@@ -5367,18 +5337,18 @@
         <v>815218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5411,7 +5381,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5426,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5411,13 @@
         <v>1055</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5459,10 +5429,10 @@
         <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5474,16 +5444,16 @@
         <v>164</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>566</v>
@@ -5492,13 +5462,13 @@
         <v>589441</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>575</v>
@@ -5507,13 +5477,13 @@
         <v>559695</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>1141</v>
@@ -5522,13 +5492,13 @@
         <v>1149136</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5513,13 @@
         <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>579</v>
@@ -5558,13 +5528,13 @@
         <v>563544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -5573,18 +5543,18 @@
         <v>1154040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5602,7 +5572,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5617,7 +5587,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5632,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5617,13 @@
         <v>1528</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5662,13 +5632,13 @@
         <v>12413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5677,19 +5647,19 @@
         <v>13941</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>637</v>
@@ -5698,13 +5668,13 @@
         <v>667569</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" s="7">
         <v>652</v>
@@ -5713,13 +5683,13 @@
         <v>648973</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>1289</v>
@@ -5728,13 +5698,13 @@
         <v>1316542</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5719,13 @@
         <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>665</v>
@@ -5764,13 +5734,13 @@
         <v>661386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>1303</v>
@@ -5779,18 +5749,18 @@
         <v>1330483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5808,7 +5778,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5823,7 +5793,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5838,7 +5808,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5823,13 @@
         <v>18255</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -5868,13 +5838,13 @@
         <v>36893</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -5883,19 +5853,19 @@
         <v>55148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>565</v>
@@ -5904,13 +5874,13 @@
         <v>627793</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="H18" s="7">
         <v>568</v>
@@ -5919,28 +5889,28 @@
         <v>612184</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>1133</v>
       </c>
       <c r="N18" s="7">
-        <v>1239977</v>
+        <v>1239978</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5925,13 @@
         <v>646048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -5970,33 +5940,33 @@
         <v>649077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6029,7 +5999,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6059,13 +6029,13 @@
         <v>10215</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -6074,13 +6044,13 @@
         <v>47539</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M21" s="7">
         <v>49</v>
@@ -6089,19 +6059,19 @@
         <v>57754</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>415</v>
@@ -6110,13 +6080,13 @@
         <v>467703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>393</v>
@@ -6125,13 +6095,13 @@
         <v>449310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>808</v>
@@ -6140,13 +6110,13 @@
         <v>917013</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6131,13 @@
         <v>477918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -6176,13 +6146,13 @@
         <v>496849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>857</v>
@@ -6191,18 +6161,18 @@
         <v>974767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6220,7 +6190,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6235,7 +6205,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6250,7 +6220,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6235,13 @@
         <v>21288</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>96</v>
@@ -6280,13 +6250,13 @@
         <v>117564</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
         <v>118</v>
@@ -6295,19 +6265,19 @@
         <v>138853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>605</v>
@@ -6316,13 +6286,13 @@
         <v>570040</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="H26" s="7">
         <v>559</v>
@@ -6331,13 +6301,13 @@
         <v>660367</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M26" s="7">
         <v>1164</v>
@@ -6346,13 +6316,13 @@
         <v>1230406</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6337,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -6382,13 +6352,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -6397,13 +6367,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,7 +6396,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6441,7 +6411,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6456,7 +6426,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6441,13 @@
         <v>52341</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="H29" s="7">
         <v>187</v>
@@ -6486,13 +6456,13 @@
         <v>218258</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="M29" s="7">
         <v>237</v>
@@ -6501,19 +6471,19 @@
         <v>270599</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>3181</v>
@@ -6522,13 +6492,13 @@
         <v>3342009</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H30" s="7">
         <v>3151</v>
@@ -6537,13 +6507,13 @@
         <v>3326284</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>356</v>
+        <v>50</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M30" s="7">
         <v>6332</v>
@@ -6552,13 +6522,13 @@
         <v>6668293</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,13 +6543,13 @@
         <v>3394350</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31" s="7">
         <v>3338</v>
@@ -6588,13 +6558,13 @@
         <v>3544542</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>6569</v>
@@ -6603,13 +6573,13 @@
         <v>6938892</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,7 +6606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49426E10-863B-4607-BD33-5CBD45E7DEFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5260D9F5-6906-49D8-9452-88CA06B50872}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6653,7 +6623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6766,7 +6736,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6781,7 +6751,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6796,7 +6766,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,7 +6787,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6826,13 +6796,13 @@
         <v>5141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6841,19 +6811,19 @@
         <v>5141</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>172</v>
@@ -6862,13 +6832,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>205</v>
@@ -6877,13 +6847,13 @@
         <v>349816</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="7">
         <v>377</v>
@@ -6892,13 +6862,13 @@
         <v>727495</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +6883,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -6928,13 +6898,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -6943,18 +6913,18 @@
         <v>732636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6972,7 +6942,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6981,13 +6951,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6996,13 +6966,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,13 +6987,13 @@
         <v>2530</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>378</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -7032,13 +7002,13 @@
         <v>6681</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>382</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -7047,19 +7017,19 @@
         <v>9210</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>300</v>
@@ -7068,13 +7038,13 @@
         <v>425866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>451</v>
@@ -7083,13 +7053,13 @@
         <v>491897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>751</v>
@@ -7098,13 +7068,13 @@
         <v>917763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7089,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -7134,13 +7104,13 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
@@ -7149,18 +7119,18 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7178,7 +7148,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7187,13 +7157,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7202,13 +7172,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,13 +7193,13 @@
         <v>11700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -7238,13 +7208,13 @@
         <v>35142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -7253,19 +7223,19 @@
         <v>46842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>535</v>
@@ -7274,13 +7244,13 @@
         <v>545552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>792</v>
@@ -7289,13 +7259,13 @@
         <v>547615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>1327</v>
@@ -7304,13 +7274,13 @@
         <v>1093167</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7295,13 @@
         <v>557252</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>848</v>
@@ -7340,13 +7310,13 @@
         <v>610447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>1394</v>
@@ -7355,18 +7325,18 @@
         <v>1167699</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7384,7 +7354,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7393,13 +7363,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7408,13 +7378,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,10 +7399,10 @@
         <v>24204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>403</v>
@@ -7444,13 +7414,13 @@
         <v>93043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -7459,19 +7429,19 @@
         <v>117247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>641</v>
@@ -7480,13 +7450,13 @@
         <v>699786</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="H18" s="7">
         <v>996</v>
@@ -7495,13 +7465,13 @@
         <v>653052</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>424</v>
+        <v>338</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>1637</v>
@@ -7510,13 +7480,13 @@
         <v>1352838</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7501,13 @@
         <v>723990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" s="7">
         <v>1140</v>
@@ -7546,13 +7516,13 @@
         <v>746502</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>1805</v>
@@ -7561,18 +7531,18 @@
         <v>1470492</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7590,7 +7560,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7599,13 +7569,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>39</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7614,13 +7584,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,13 +7605,13 @@
         <v>41325</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>138</v>
@@ -7650,13 +7620,13 @@
         <v>79380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M21" s="7">
         <v>186</v>
@@ -7665,19 +7635,19 @@
         <v>120705</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>614</v>
@@ -7686,13 +7656,13 @@
         <v>557761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>46</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>861</v>
@@ -7701,13 +7671,13 @@
         <v>514037</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>1475</v>
@@ -7716,13 +7686,13 @@
         <v>1071798</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,13 +7707,13 @@
         <v>599086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>1000</v>
@@ -7752,13 +7722,13 @@
         <v>596179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>1662</v>
@@ -7767,18 +7737,18 @@
         <v>1195265</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7811,7 +7781,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7826,7 +7796,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,13 +7811,13 @@
         <v>49807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>336</v>
@@ -7856,13 +7826,13 @@
         <v>181133</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>410</v>
@@ -7871,19 +7841,19 @@
         <v>230940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>953</v>
@@ -7892,13 +7862,13 @@
         <v>647170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>1372</v>
@@ -7907,13 +7877,13 @@
         <v>845504</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>2325</v>
@@ -7922,13 +7892,13 @@
         <v>1492674</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,13 +7913,13 @@
         <v>696977</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" s="7">
         <v>1708</v>
@@ -7958,13 +7928,13 @@
         <v>1026637</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M27" s="7">
         <v>2735</v>
@@ -7973,13 +7943,13 @@
         <v>1723614</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,7 +7972,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8011,13 +7981,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8026,13 +7996,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>469</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8017,13 @@
         <v>129566</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>681</v>
@@ -8062,13 +8032,13 @@
         <v>400520</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>840</v>
@@ -8077,19 +8047,19 @@
         <v>530086</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>3215</v>
@@ -8098,13 +8068,13 @@
         <v>3253814</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="H30" s="7">
         <v>4677</v>
@@ -8113,13 +8083,13 @@
         <v>3401919</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>482</v>
+        <v>130</v>
       </c>
       <c r="M30" s="7">
         <v>7892</v>
@@ -8128,13 +8098,13 @@
         <v>6655733</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,13 +8119,13 @@
         <v>3383380</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31" s="7">
         <v>5364</v>
@@ -8164,13 +8134,13 @@
         <v>3833936</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>8738</v>
@@ -8179,13 +8149,13 @@
         <v>7217316</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1419-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A40F764F-60DE-45CF-A7EC-C5F2C39274C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F54F55-37FE-4BEB-A0FA-694C290C5EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E91298BF-1F1C-4ABF-9C39-FF8855E9311D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54587884-64A2-42B5-AFC4-F083586B2C8D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="484">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1329 +95,1359 @@
     <t>1,41%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
     <t>3,83%</t>
   </si>
   <si>
@@ -1461,12 +1491,6 @@
   </si>
   <si>
     <t>92,22%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C999B274-075E-48CA-B398-AA113BAAF556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3ED1FC-8BC3-4CD3-BE4C-BF47AFDA8BB3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2435,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2465,13 +2489,13 @@
         <v>10140</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2480,13 +2504,13 @@
         <v>50489</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2495,13 +2519,13 @@
         <v>60629</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2540,13 @@
         <v>628528</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>609</v>
@@ -2531,13 +2555,13 @@
         <v>639255</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>1212</v>
@@ -2546,13 +2570,13 @@
         <v>1267783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,7 +2632,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2626,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2671,13 +2695,13 @@
         <v>20446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -2686,13 +2710,13 @@
         <v>54421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -2701,13 +2725,13 @@
         <v>74867</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2746,13 @@
         <v>498701</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>449</v>
@@ -2737,13 +2761,13 @@
         <v>461221</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>915</v>
@@ -2752,13 +2776,13 @@
         <v>959922</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,7 +2838,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2832,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2847,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2862,7 +2886,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2901,13 @@
         <v>22227</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -2892,13 +2916,13 @@
         <v>61446</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M21" s="7">
         <v>84</v>
@@ -2907,13 +2931,13 @@
         <v>83674</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2952,13 @@
         <v>364483</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>335</v>
@@ -2943,13 +2967,13 @@
         <v>342540</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>704</v>
@@ -2958,13 +2982,13 @@
         <v>707022</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3044,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3038,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3053,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3068,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3107,13 @@
         <v>37878</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>157</v>
@@ -3098,13 +3122,13 @@
         <v>160440</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>196</v>
@@ -3113,13 +3137,13 @@
         <v>198318</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3158,13 @@
         <v>464588</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>504</v>
@@ -3149,13 +3173,13 @@
         <v>516402</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>988</v>
@@ -3164,13 +3188,13 @@
         <v>980990</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3259,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3274,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3313,13 @@
         <v>99079</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>354</v>
@@ -3304,13 +3328,13 @@
         <v>364338</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M29" s="7">
         <v>451</v>
@@ -3319,13 +3343,13 @@
         <v>463416</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,16 +3361,16 @@
         <v>3117</v>
       </c>
       <c r="D30" s="7">
-        <v>3177465</v>
+        <v>3177464</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H30" s="7">
         <v>2943</v>
@@ -3355,13 +3379,13 @@
         <v>3014860</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>6060</v>
@@ -3388,7 +3412,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>26</v>
@@ -3454,7 +3478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AEE2B7-A536-4955-8050-66364AAC7814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DF4879-CF01-4A3F-B2A5-334D814CA34F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,7 +3814,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3853,10 +3877,10 @@
         <v>167</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -3865,13 +3889,13 @@
         <v>9918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3910,13 @@
         <v>684220</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>564</v>
@@ -3901,13 +3925,13 @@
         <v>603203</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>1228</v>
@@ -3916,10 +3940,10 @@
         <v>1287424</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>25</v>
@@ -3996,7 +4020,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4011,7 +4035,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4041,13 +4065,13 @@
         <v>5916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4056,13 +4080,13 @@
         <v>39987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4071,13 +4095,13 @@
         <v>45903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4116,13 @@
         <v>675947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>630</v>
@@ -4107,13 +4131,13 @@
         <v>669587</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1277</v>
@@ -4122,13 +4146,13 @@
         <v>1345534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,7 +4208,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4202,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4217,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4232,7 +4256,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4271,13 @@
         <v>9842</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -4262,13 +4286,13 @@
         <v>40421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -4277,13 +4301,13 @@
         <v>50263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4322,13 @@
         <v>604775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7">
         <v>501</v>
@@ -4313,13 +4337,13 @@
         <v>573843</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>1041</v>
@@ -4328,13 +4352,13 @@
         <v>1178617</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,7 +4414,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4408,7 +4432,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4423,7 +4447,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4438,7 +4462,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4477,13 @@
         <v>5268</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -4468,13 +4492,13 @@
         <v>59010</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>61</v>
@@ -4483,13 +4507,13 @@
         <v>64278</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4528,13 @@
         <v>424161</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="H22" s="7">
         <v>350</v>
@@ -4519,13 +4543,13 @@
         <v>388790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M22" s="7">
         <v>738</v>
@@ -4534,13 +4558,13 @@
         <v>812951</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,7 +4620,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4629,7 +4653,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4644,7 +4668,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4683,13 @@
         <v>16895</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -4674,13 +4698,13 @@
         <v>153214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>158</v>
@@ -4689,13 +4713,13 @@
         <v>170110</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,10 +4734,10 @@
         <v>542742</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>240</v>
@@ -4820,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4835,7 +4859,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4850,7 +4874,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,7 +4907,7 @@
         <v>250</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>251</v>
@@ -4901,7 +4925,7 @@
         <v>253</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4940,13 @@
         <v>3385991</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H30" s="7">
         <v>3018</v>
@@ -4931,28 +4955,28 @@
         <v>3255414</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>6191</v>
       </c>
       <c r="N30" s="7">
-        <v>6641406</v>
+        <v>6641405</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,7 +5018,7 @@
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>26</v>
@@ -5030,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA84D28F-18F8-4A66-B0E9-627ACB10C097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BACEDB-EFA6-4A3D-8388-82FC4CAF488A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5047,7 +5071,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5160,7 +5184,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5175,7 +5199,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5190,7 +5214,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,7 +5235,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5226,7 +5250,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5241,7 +5265,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,7 +5283,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -5274,7 +5298,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -5289,7 +5313,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -5381,7 +5405,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5396,7 +5420,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5435,13 @@
         <v>1055</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5429,10 +5453,10 @@
         <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5444,10 +5468,10 @@
         <v>164</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,10 +5486,10 @@
         <v>589441</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -5480,10 +5504,10 @@
         <v>30</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>1141</v>
@@ -5492,13 +5516,13 @@
         <v>1149136</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,7 +5611,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5760,7 +5784,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5778,7 +5802,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5808,7 +5832,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,7 +5850,7 @@
         <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>294</v>
@@ -5838,13 +5862,13 @@
         <v>36893</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -5853,13 +5877,13 @@
         <v>55148</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,7 +5904,7 @@
         <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="H18" s="7">
         <v>568</v>
@@ -5889,25 +5913,25 @@
         <v>612184</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>1133</v>
       </c>
       <c r="N18" s="7">
-        <v>1239978</v>
+        <v>1239977</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>306</v>
@@ -5952,7 +5976,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
@@ -5966,7 +5990,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6172,7 +6196,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6205,7 +6229,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6241,7 +6265,7 @@
         <v>327</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>96</v>
@@ -6250,7 +6274,7 @@
         <v>117564</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>329</v>
@@ -6289,10 +6313,10 @@
         <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H26" s="7">
         <v>559</v>
@@ -6301,7 +6325,7 @@
         <v>660367</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>337</v>
@@ -6396,7 +6420,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6411,7 +6435,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6426,7 +6450,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +6486,7 @@
         <v>346</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="M29" s="7">
         <v>237</v>
@@ -6471,13 +6495,13 @@
         <v>270599</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>253</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6516,13 @@
         <v>3342009</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H30" s="7">
         <v>3151</v>
@@ -6507,13 +6531,13 @@
         <v>3326284</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>50</v>
+        <v>355</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M30" s="7">
         <v>6332</v>
@@ -6522,13 +6546,13 @@
         <v>6668293</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>260</v>
+        <v>358</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,7 +6630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5260D9F5-6906-49D8-9452-88CA06B50872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E60FA2B-2E83-4C83-A920-F52693169D14}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6623,7 +6647,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6736,7 +6760,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6751,7 +6775,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6766,7 +6790,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,7 +6811,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>357</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6796,13 +6820,13 @@
         <v>5141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6811,13 +6835,13 @@
         <v>5141</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6859,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>364</v>
+        <v>173</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -6847,10 +6871,10 @@
         <v>349816</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -6862,10 +6886,10 @@
         <v>727495</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>24</v>
@@ -6942,7 +6966,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6951,13 +6975,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6966,7 +6990,7 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -6987,13 +7011,13 @@
         <v>2530</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>374</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -7002,13 +7026,13 @@
         <v>6681</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -7017,13 +7041,13 @@
         <v>9210</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>157</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,10 +7062,10 @@
         <v>425866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -7053,10 +7077,10 @@
         <v>491897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -7068,13 +7092,13 @@
         <v>917763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,7 +7172,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7157,13 +7181,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7172,13 +7196,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7217,13 @@
         <v>11700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -7208,13 +7232,13 @@
         <v>35142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -7223,13 +7247,13 @@
         <v>46842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,10 +7268,10 @@
         <v>545552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>46</v>
@@ -7259,13 +7283,13 @@
         <v>547615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>1327</v>
@@ -7274,13 +7298,13 @@
         <v>1093167</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,7 +7360,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7354,7 +7378,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7363,7 +7387,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7378,13 +7402,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7423,13 @@
         <v>24204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>143</v>
@@ -7414,13 +7438,13 @@
         <v>93043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -7429,13 +7453,13 @@
         <v>117247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7474,13 @@
         <v>699786</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>996</v>
@@ -7465,13 +7489,13 @@
         <v>653052</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>338</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>1637</v>
@@ -7480,13 +7504,13 @@
         <v>1352838</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,7 +7566,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7560,7 +7584,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7569,13 +7593,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>39</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7590,7 +7614,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7629,13 @@
         <v>41325</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="H21" s="7">
         <v>138</v>
@@ -7620,13 +7644,13 @@
         <v>79380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="M21" s="7">
         <v>186</v>
@@ -7635,13 +7659,13 @@
         <v>120705</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7680,13 @@
         <v>557761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="H22" s="7">
         <v>861</v>
@@ -7671,13 +7695,13 @@
         <v>514037</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="M22" s="7">
         <v>1475</v>
@@ -7686,13 +7710,13 @@
         <v>1071798</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7772,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7781,7 +7805,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7796,7 +7820,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7835,13 @@
         <v>49807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="H25" s="7">
         <v>336</v>
@@ -7826,13 +7850,13 @@
         <v>181133</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>410</v>
@@ -7841,13 +7865,13 @@
         <v>230940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7886,13 @@
         <v>647170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>1372</v>
@@ -7877,13 +7901,13 @@
         <v>845504</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>2325</v>
@@ -7892,13 +7916,13 @@
         <v>1492674</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,7 +7996,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -7981,13 +8005,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7999,10 +8023,10 @@
         <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>344</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,13 +8041,13 @@
         <v>129566</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>681</v>
@@ -8032,13 +8056,13 @@
         <v>400520</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>840</v>
@@ -8047,13 +8071,13 @@
         <v>530086</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8092,13 @@
         <v>3253814</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H30" s="7">
         <v>4677</v>
@@ -8083,13 +8107,13 @@
         <v>3401919</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="M30" s="7">
         <v>7892</v>
@@ -8098,13 +8122,13 @@
         <v>6655733</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>474</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>475</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1419-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{478FFF3C-9EC3-4483-ACCB-82AC32E3E43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D69B60E-A38B-45D3-91A6-63822A011B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECA02508-9C66-4300-AC45-4EB0962D7911}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A862CFCB-9928-437D-9C3B-E58048231D5A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="518">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -125,7 +125,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -176,7 +176,7 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,59%</t>
@@ -233,7 +233,7 @@
     <t>96,53%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,94%</t>
@@ -290,7 +290,7 @@
     <t>94,24%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>5,75%</t>
@@ -347,61 +347,118 @@
     <t>91,46%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>3,02%</t>
@@ -680,706 +737,862 @@
     <t>94,19%</t>
   </si>
   <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +2004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A5B913-DBFB-4CDC-8A34-F247C5A14969}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53CB9E-3872-455E-83EE-AF139832DEC2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2684,10 +2897,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>37878</v>
+        <v>19167</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>103</v>
@@ -2699,10 +2912,10 @@
         <v>105</v>
       </c>
       <c r="H19" s="7">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="I19" s="7">
-        <v>160440</v>
+        <v>76501</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>106</v>
@@ -2714,10 +2927,10 @@
         <v>108</v>
       </c>
       <c r="M19" s="7">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="N19" s="7">
-        <v>198318</v>
+        <v>95668</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>109</v>
@@ -2735,10 +2948,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>484</v>
+        <v>283</v>
       </c>
       <c r="D20" s="7">
-        <v>464588</v>
+        <v>273416</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>112</v>
@@ -2750,10 +2963,10 @@
         <v>114</v>
       </c>
       <c r="H20" s="7">
-        <v>504</v>
+        <v>288</v>
       </c>
       <c r="I20" s="7">
-        <v>516402</v>
+        <v>266433</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>115</v>
@@ -2765,10 +2978,10 @@
         <v>117</v>
       </c>
       <c r="M20" s="7">
-        <v>988</v>
+        <v>571</v>
       </c>
       <c r="N20" s="7">
-        <v>980990</v>
+        <v>539849</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>118</v>
@@ -2786,10 +2999,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -2801,10 +3014,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -2816,10 +3029,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -2833,55 +3046,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="D22" s="7">
-        <v>99079</v>
+        <v>18711</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="I22" s="7">
-        <v>364338</v>
+        <v>83939</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
-        <v>451</v>
+        <v>93</v>
       </c>
       <c r="N22" s="7">
-        <v>463416</v>
+        <v>102650</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,49 +3103,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3117</v>
+        <v>201</v>
       </c>
       <c r="D23" s="7">
-        <v>3177465</v>
+        <v>191172</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
-        <v>2943</v>
+        <v>216</v>
       </c>
       <c r="I23" s="7">
-        <v>3014860</v>
+        <v>249969</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
-        <v>6060</v>
+        <v>417</v>
       </c>
       <c r="N23" s="7">
-        <v>6192324</v>
+        <v>441141</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,63 +3154,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>97</v>
+      </c>
+      <c r="D25" s="7">
+        <v>99079</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="7">
+        <v>354</v>
+      </c>
+      <c r="I25" s="7">
+        <v>364338</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="7">
+        <v>451</v>
+      </c>
+      <c r="N25" s="7">
+        <v>463416</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3117</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3177464</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2943</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3014859</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6060</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6192325</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>139</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3010,8 +3379,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B704F7C7-00D4-49B1-9591-BC33A6F80F86}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D45F04-0866-457E-9189-CDB071C0CD08}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3027,7 +3396,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3140,7 +3509,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3155,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3170,7 +3539,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3557,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3203,7 +3572,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -3218,7 +3587,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -3289,13 +3658,13 @@
         <v>2867</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3304,13 +3673,13 @@
         <v>7052</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -3319,13 +3688,13 @@
         <v>9918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3709,13 @@
         <v>684220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>564</v>
@@ -3355,13 +3724,13 @@
         <v>603203</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>1228</v>
@@ -3370,10 +3739,10 @@
         <v>1287424</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3444,13 +3813,13 @@
         <v>5916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -3459,13 +3828,13 @@
         <v>39987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3474,13 +3843,13 @@
         <v>45903</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3864,13 @@
         <v>675947</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>630</v>
@@ -3510,13 +3879,13 @@
         <v>669587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
@@ -3525,13 +3894,13 @@
         <v>1345534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3968,13 @@
         <v>9842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3614,10 +3983,10 @@
         <v>40421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>73</v>
@@ -3629,13 +3998,13 @@
         <v>50263</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +4019,13 @@
         <v>604775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>501</v>
@@ -3665,13 +4034,13 @@
         <v>573843</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>1041</v>
@@ -3680,10 +4049,10 @@
         <v>1178617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>56</v>
@@ -3754,13 +4123,13 @@
         <v>5268</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3769,13 +4138,13 @@
         <v>59010</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3784,13 +4153,13 @@
         <v>64278</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +4174,13 @@
         <v>424161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>350</v>
@@ -3820,13 +4189,13 @@
         <v>388790</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>738</v>
@@ -3835,13 +4204,13 @@
         <v>812951</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,49 +4272,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>16895</v>
+        <v>9206</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="I19" s="7">
-        <v>153214</v>
+        <v>55824</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="N19" s="7">
-        <v>170110</v>
+        <v>65029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,49 +4323,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>488</v>
+        <v>273</v>
       </c>
       <c r="D20" s="7">
-        <v>542742</v>
+        <v>300580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
-        <v>552</v>
+        <v>289</v>
       </c>
       <c r="I20" s="7">
-        <v>589761</v>
+        <v>298172</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
-        <v>1040</v>
+        <v>562</v>
       </c>
       <c r="N20" s="7">
-        <v>1132502</v>
+        <v>598753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,10 +4374,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -4020,10 +4389,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -4035,10 +4404,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -4052,55 +4421,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>40788</v>
+        <v>7690</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
-        <v>278</v>
+        <v>87</v>
       </c>
       <c r="I22" s="7">
-        <v>299684</v>
+        <v>97391</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
-        <v>314</v>
+        <v>94</v>
       </c>
       <c r="N22" s="7">
-        <v>340472</v>
+        <v>105080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,49 +4478,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3173</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>3385991</v>
+        <v>242161</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
-        <v>3018</v>
+        <v>263</v>
       </c>
       <c r="I23" s="7">
-        <v>3255414</v>
+        <v>291588</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
-        <v>6191</v>
+        <v>478</v>
       </c>
       <c r="N23" s="7">
-        <v>6641405</v>
+        <v>533750</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,63 +4529,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>36</v>
+      </c>
+      <c r="D25" s="7">
+        <v>40788</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H25" s="7">
+        <v>278</v>
+      </c>
+      <c r="I25" s="7">
+        <v>299684</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M25" s="7">
+        <v>314</v>
+      </c>
+      <c r="N25" s="7">
+        <v>340472</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3173</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3385991</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3018</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3255414</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6191</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6641405</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>139</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4229,8 +4754,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F050DF6-4061-411C-BDAA-04C15AAA6011}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0545A858-344F-4E9D-9C7A-12AA48FC85B4}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4246,7 +4771,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4359,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4374,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4389,7 +4914,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,7 +4932,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -4422,7 +4947,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -4437,7 +4962,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -4508,13 +5033,13 @@
         <v>1055</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4526,10 +5051,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4538,13 +5063,13 @@
         <v>4904</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,10 +5084,10 @@
         <v>589441</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -4577,10 +5102,10 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="M8" s="7">
         <v>1141</v>
@@ -4589,13 +5114,13 @@
         <v>1149136</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +5188,13 @@
         <v>1528</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4678,13 +5203,13 @@
         <v>12413</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4693,13 +5218,13 @@
         <v>13941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,10 +5239,10 @@
         <v>667569</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>20</v>
@@ -4729,13 +5254,13 @@
         <v>648973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="M11" s="7">
         <v>1289</v>
@@ -4744,13 +5269,13 @@
         <v>1316542</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +5343,13 @@
         <v>18255</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4833,13 +5358,13 @@
         <v>36893</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -4848,13 +5373,13 @@
         <v>55148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +5394,13 @@
         <v>627793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>568</v>
@@ -4884,13 +5409,13 @@
         <v>612184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="M14" s="7">
         <v>1133</v>
@@ -4899,13 +5424,13 @@
         <v>1239977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +5498,13 @@
         <v>10215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -4988,13 +5513,13 @@
         <v>47539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -5003,13 +5528,13 @@
         <v>57754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5549,13 @@
         <v>467703</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="H17" s="7">
         <v>393</v>
@@ -5039,13 +5564,13 @@
         <v>449310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
         <v>808</v>
@@ -5054,13 +5579,13 @@
         <v>917013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,49 +5647,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>21288</v>
+        <v>10311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>347</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="H19" s="7">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="I19" s="7">
-        <v>117564</v>
+        <v>54323</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="M19" s="7">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="N19" s="7">
-        <v>138853</v>
+        <v>64634</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,49 +5698,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>605</v>
+        <v>315</v>
       </c>
       <c r="D20" s="7">
-        <v>570040</v>
+        <v>324019</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
-        <v>559</v>
+        <v>304</v>
       </c>
       <c r="I20" s="7">
-        <v>660367</v>
+        <v>323439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
-        <v>1164</v>
+        <v>619</v>
       </c>
       <c r="N20" s="7">
-        <v>1230406</v>
+        <v>647458</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,10 +5749,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -5239,10 +5764,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -5254,10 +5779,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -5271,55 +5796,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>52341</v>
+        <v>10977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>35</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>218258</v>
+        <v>63242</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="N22" s="7">
-        <v>270599</v>
+        <v>74219</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,49 +5853,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3181</v>
+        <v>290</v>
       </c>
       <c r="D23" s="7">
-        <v>3342009</v>
+        <v>246021</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="H23" s="7">
-        <v>3151</v>
+        <v>255</v>
       </c>
       <c r="I23" s="7">
-        <v>3326284</v>
+        <v>336927</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
-        <v>6332</v>
+        <v>545</v>
       </c>
       <c r="N23" s="7">
-        <v>6668293</v>
+        <v>582948</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,63 +5904,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7">
+        <v>52341</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="7">
+        <v>187</v>
+      </c>
+      <c r="I25" s="7">
+        <v>218258</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M25" s="7">
+        <v>237</v>
+      </c>
+      <c r="N25" s="7">
+        <v>270599</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3181</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3342009</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3151</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3326284</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6332</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6668293</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>139</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5448,8 +6129,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B950AE-19A3-4DEC-AB88-A91370715F3D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BAD26D-C2F7-40E3-B61A-E3DE2669287E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5465,7 +6146,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5578,37 +6259,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>5141</v>
+        <v>4323</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>5141</v>
+        <v>4323</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +6301,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -5635,13 +6316,13 @@
         <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>349816</v>
+        <v>308877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>181</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -5650,13 +6331,13 @@
         <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>727495</v>
+        <v>708864</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>20</v>
@@ -5671,7 +6352,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -5686,7 +6367,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>22</v>
@@ -5701,7 +6382,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>22</v>
@@ -5724,46 +6405,46 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2530</v>
+        <v>2353</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>6681</v>
+        <v>6317</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>357</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>9210</v>
+        <v>8670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +6456,13 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>425866</v>
+        <v>421194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -5790,31 +6471,31 @@
         <v>451</v>
       </c>
       <c r="I8" s="7">
-        <v>491896</v>
+        <v>505187</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="M8" s="7">
         <v>751</v>
       </c>
       <c r="N8" s="7">
-        <v>917763</v>
+        <v>926381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,7 +6507,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -5841,7 +6522,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -5856,7 +6537,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -5879,46 +6560,46 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>11700</v>
+        <v>11087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>381</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>35142</v>
+        <v>33156</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
       </c>
       <c r="N10" s="7">
-        <v>46842</v>
+        <v>44243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>421</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,46 +6611,46 @@
         <v>535</v>
       </c>
       <c r="D11" s="7">
-        <v>545552</v>
+        <v>525251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>792</v>
       </c>
       <c r="I11" s="7">
-        <v>547616</v>
+        <v>508643</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>1327</v>
       </c>
       <c r="N11" s="7">
-        <v>1093168</v>
+        <v>1033894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>429</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,7 +6662,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -5996,7 +6677,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -6011,7 +6692,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140010</v>
+        <v>1078137</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -6034,46 +6715,46 @@
         <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>24204</v>
+        <v>23049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
       </c>
       <c r="I13" s="7">
-        <v>93043</v>
+        <v>86483</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>167</v>
       </c>
       <c r="N13" s="7">
-        <v>117247</v>
+        <v>109532</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,46 +6766,46 @@
         <v>641</v>
       </c>
       <c r="D14" s="7">
-        <v>699786</v>
+        <v>864737</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>996</v>
       </c>
       <c r="I14" s="7">
-        <v>653051</v>
+        <v>625292</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>1637</v>
       </c>
       <c r="N14" s="7">
-        <v>1352837</v>
+        <v>1490029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,7 +6817,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
@@ -6151,7 +6832,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746094</v>
+        <v>711775</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>22</v>
@@ -6166,7 +6847,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470084</v>
+        <v>1599561</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>22</v>
@@ -6189,46 +6870,46 @@
         <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>41325</v>
+        <v>38928</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>138</v>
       </c>
       <c r="I16" s="7">
-        <v>79380</v>
+        <v>73160</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
       </c>
       <c r="N16" s="7">
-        <v>120705</v>
+        <v>112087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,46 +6921,46 @@
         <v>614</v>
       </c>
       <c r="D17" s="7">
-        <v>557761</v>
+        <v>521309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>861</v>
       </c>
       <c r="I17" s="7">
-        <v>514037</v>
+        <v>471568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>1475</v>
       </c>
       <c r="N17" s="7">
-        <v>1071798</v>
+        <v>992877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,7 +6972,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>22</v>
@@ -6306,7 +6987,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>593417</v>
+        <v>544728</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>22</v>
@@ -6321,7 +7002,7 @@
         <v>1661</v>
       </c>
       <c r="N18" s="7">
-        <v>1192503</v>
+        <v>1104964</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>22</v>
@@ -6341,49 +7022,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>49807</v>
+        <v>21684</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="I19" s="7">
-        <v>181133</v>
+        <v>62603</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
-        <v>410</v>
+        <v>162</v>
       </c>
       <c r="N19" s="7">
-        <v>230940</v>
+        <v>84286</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,49 +7073,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>953</v>
+        <v>535</v>
       </c>
       <c r="D20" s="7">
-        <v>647170</v>
+        <v>345763</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
-        <v>1372</v>
+        <v>699</v>
       </c>
       <c r="I20" s="7">
-        <v>845504</v>
+        <v>545765</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="M20" s="7">
-        <v>2325</v>
+        <v>1234</v>
       </c>
       <c r="N20" s="7">
-        <v>1492674</v>
+        <v>891528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,10 +7124,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696977</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -6458,10 +7139,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -6473,10 +7154,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>2735</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1723614</v>
+        <v>975814</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -6490,55 +7171,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>129566</v>
+        <v>24774</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>370</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
-        <v>681</v>
+        <v>208</v>
       </c>
       <c r="I22" s="7">
-        <v>400520</v>
+        <v>100334</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="M22" s="7">
-        <v>840</v>
+        <v>248</v>
       </c>
       <c r="N22" s="7">
-        <v>530086</v>
+        <v>125108</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,49 +7228,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3215</v>
+        <v>418</v>
       </c>
       <c r="D23" s="7">
-        <v>3253814</v>
+        <v>257985</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
-        <v>4677</v>
+        <v>673</v>
       </c>
       <c r="I23" s="7">
-        <v>3401920</v>
+        <v>325497</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
-        <v>7892</v>
+        <v>1091</v>
       </c>
       <c r="N23" s="7">
-        <v>6655734</v>
+        <v>583482</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,63 +7279,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>159</v>
+      </c>
+      <c r="D25" s="7">
+        <v>121874</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="H25" s="7">
+        <v>681</v>
+      </c>
+      <c r="I25" s="7">
+        <v>366375</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="M25" s="7">
+        <v>840</v>
+      </c>
+      <c r="N25" s="7">
+        <v>488249</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3215</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3336227</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4677</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3290829</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7892</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6627057</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383380</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458101</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>5358</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802440</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657204</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>8732</v>
       </c>
-      <c r="N24" s="7">
-        <v>7185820</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>139</v>
+      <c r="N27" s="7">
+        <v>7115306</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
